--- a/TestDataexcel.xlsx
+++ b/TestDataexcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Test_execution\automation\testproject\orangeseleniumproj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{402AD240-AFD4-41AF-9396-E1763922EA5C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FEEDF7-A9E5-45BE-8191-2031B4258652}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" xr2:uid="{1E58524A-B57B-4C05-834B-82A9ECB91DED}"/>
   </bookViews>
